--- a/meeg342_Project2.xlsx
+++ b/meeg342_Project2.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F17C9-A427-4AA9-AFCB-E8D7BB544A6D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="15560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Air Properties</t>
   </si>
@@ -218,23 +224,127 @@
     <t>Rt,total</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>Length of HE</t>
   </si>
   <si>
-    <t>Th,o</t>
-  </si>
-  <si>
-    <t>RESULTS</t>
+    <r>
+      <t>ṁ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kg/s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ṁ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(kg/s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(°C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(#)</t>
+    </r>
+  </si>
+  <si>
+    <t>L (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Results Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +426,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +484,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +806,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -687,19 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,7 +859,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
@@ -741,12 +893,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -775,7 +930,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -797,10 +951,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.231</c:v>
+                  <c:v>59.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.986</c:v>
+                  <c:v>74.233000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>117.968</c:v>
@@ -815,18 +969,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>525.0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-972A-4C84-93A7-2157B9872A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -841,10 +1000,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.231</c:v>
+                  <c:v>59.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.986</c:v>
+                  <c:v>74.233000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>117.968</c:v>
@@ -859,18 +1018,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98.75</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.15</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.35</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-972A-4C84-93A7-2157B9872A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -885,10 +1049,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.231</c:v>
+                  <c:v>59.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.986</c:v>
+                  <c:v>74.233000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>117.968</c:v>
@@ -903,18 +1067,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.9551</c:v>
+                  <c:v>1.8355999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5663</c:v>
+                  <c:v>1.427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9341</c:v>
+                  <c:v>0.93899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-972A-4C84-93A7-2157B9872A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -952,7 +1121,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -988,7 +1156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1002,7 +1169,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80350410968365793"/>
+          <c:y val="0.33706770524652163"/>
+          <c:w val="0.18831589307915458"/>
+          <c:h val="0.42445765247086048"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1018,7 +1194,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1052,7 +1228,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1074,13 +1249,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.277</c:v>
+                  <c:v>71.588999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.817</c:v>
+                  <c:v>94.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.562</c:v>
+                  <c:v>141.56200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,18 +1267,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>475.0</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5122-4849-9478-3D1DDE98AA24}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1118,13 +1298,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.277</c:v>
+                  <c:v>71.588999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.817</c:v>
+                  <c:v>94.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.562</c:v>
+                  <c:v>141.56200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,18 +1316,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>103.55</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.95</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5122-4849-9478-3D1DDE98AA24}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1162,13 +1347,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.277</c:v>
+                  <c:v>71.588999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.817</c:v>
+                  <c:v>94.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.562</c:v>
+                  <c:v>141.56200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,18 +1365,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.1429</c:v>
+                  <c:v>1.9826999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3178</c:v>
+                  <c:v>1.4409000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0106</c:v>
+                  <c:v>1.0163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5122-4849-9478-3D1DDE98AA24}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1229,7 +1419,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1265,7 +1454,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1279,7 +1467,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1295,7 +1482,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1329,7 +1516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1351,10 +1537,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56.323</c:v>
+                  <c:v>87.816000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.52</c:v>
+                  <c:v>118.503</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>165.155</c:v>
@@ -1369,18 +1555,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-298F-40B8-A057-8D497C257E4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1395,10 +1586,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56.323</c:v>
+                  <c:v>87.816000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.52</c:v>
+                  <c:v>118.503</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>165.155</c:v>
@@ -1413,18 +1604,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>108.65</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.7</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-298F-40B8-A057-8D497C257E4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1439,10 +1635,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56.323</c:v>
+                  <c:v>87.816000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.52</c:v>
+                  <c:v>118.503</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>165.155</c:v>
@@ -1457,18 +1653,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3459</c:v>
+                  <c:v>1.9855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1083</c:v>
+                  <c:v>1.4410000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0807</c:v>
+                  <c:v>1.0808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-298F-40B8-A057-8D497C257E4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1506,7 +1707,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1542,7 +1742,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1556,7 +1755,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1571,24 +1769,1571 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature(°C)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. ṁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>h</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(kg/s)   by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ṁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29496850011652476"/>
+          <c:y val="2.0645158493586183E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.070006600052187E-2"/>
+          <c:y val="0.14069225020743492"/>
+          <c:w val="0.76536231216711936"/>
+          <c:h val="0.73717114321880461"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ṁc = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$44:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.233000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$44:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-40B3-4E62-8586-8177F3298C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ṁc = 60</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$50:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-40B3-4E62-8586-8177F3298C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ṁc = 70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$47:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>71.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.56200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$47:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-40B3-4E62-8586-8177F3298C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594758408"/>
+        <c:axId val="594753816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594758408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ṁ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>h</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594753816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594753816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="610"/>
+          <c:min val="480"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594758408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.867719298245614"/>
+          <c:y val="0.42383360045495294"/>
+          <c:w val="0.12005822416302765"/>
+          <c:h val="0.18666230643809242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(#) vs. ṁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>h</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(kg/s)   by ṁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36248661950637884"/>
+          <c:y val="2.0253257816457152E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ṁh = 50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$44:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.233000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$44:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A79C-4821-98CB-CAB002BBB47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ṁh = 60</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$47:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>71.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.56200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$47:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A79C-4821-98CB-CAB002BBB47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ṁh = 70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$50:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-A79C-4821-98CB-CAB002BBB47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="589216904"/>
+        <c:axId val="589217232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="589216904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ṁ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>h</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589217232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589217232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589216904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Length(m) vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ṁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>h</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(kg/s)   by ṁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>c</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ṁh = 50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$44:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.233000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$44:$O$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8355999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA25-4FC8-AAC5-CB47FF47EC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ṁh = 60</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$47:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>71.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.56200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$47:$O$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9826999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4409000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BA25-4FC8-AAC5-CB47FF47EC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ṁh = 70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$50:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$50:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BA25-4FC8-AAC5-CB47FF47EC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594760376"/>
+        <c:axId val="594761032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594760376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ṁ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>h</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594761032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594761032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.25"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594760376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1606,19 +3351,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1635,20 +3386,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1658,6 +3415,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06B684-1922-478E-A0EF-3D1F147EC918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D4BBC8-2C8F-4149-9680-8D16DDEC637F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8816E8D-DE2D-42A0-86A9-41A928D8D3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1952,29 +3817,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +3859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>450</v>
       </c>
@@ -2014,7 +3879,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -2034,7 +3899,7 @@
         <v>0.69640000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>550</v>
       </c>
@@ -2054,7 +3919,7 @@
         <v>0.63290000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
@@ -2074,7 +3939,7 @@
         <v>0.58040000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>650</v>
       </c>
@@ -2094,12 +3959,12 @@
         <v>0.53559999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4180</v>
       </c>
@@ -2116,38 +3981,38 @@
         <v>989</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>1.2</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="38">
         <v>2</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="44">
+      <c r="C13" s="39"/>
+      <c r="D13" s="38">
         <v>2</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +4035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>400</v>
       </c>
@@ -2188,13 +4053,13 @@
       </c>
       <c r="F15" s="23">
         <f>C17*B10</f>
-        <v>292600</v>
+        <v>209000</v>
       </c>
       <c r="G15" s="23">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2213,12 +4078,12 @@
       <c r="F16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>290</v>
       </c>
@@ -2226,7 +4091,7 @@
         <v>350</v>
       </c>
       <c r="C17" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D17" s="23">
         <v>1.4999999999999999E-2</v>
@@ -2236,20 +4101,25 @@
       </c>
       <c r="F17" s="23">
         <f>F15*(B17-A17)</f>
-        <v>17556000</v>
-      </c>
-      <c r="G17" s="38">
-        <v>600</v>
-      </c>
-      <c r="H17" s="39"/>
+        <v>12540000</v>
+      </c>
+      <c r="G17" s="32">
+        <v>540</v>
+      </c>
+      <c r="H17" s="33"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1"/>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2266,28 +4136,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C23" s="23">
         <f>(4*C17/(PI()*D17*C10*A23*D15))</f>
-        <v>12713.234786352195</v>
+        <v>6810.6614926886768</v>
       </c>
       <c r="D23" s="24">
         <f>((0.79*LN(C23))-1.64)^(-2)</f>
-        <v>2.9463654205395696E-2</v>
+        <v>3.5164163531470678E-2</v>
       </c>
       <c r="E23" s="24">
         <f>((D23/8)*(C23-1000)*E10)/(((D23/8)^(1/2))*12.7*((E10^(2/3))-1)+1)</f>
-        <v>77.585511138748586</v>
+        <v>43.816259328805906</v>
       </c>
       <c r="F23" s="24">
         <f>(E23*D10)/D17</f>
-        <v>3310.3151419199398</v>
+        <v>1869.4937313623855</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
@@ -2300,15 +4170,15 @@
         <v>170.66666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -2331,10 +4201,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>(G17+G15)/2</f>
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="B29">
         <v>600</v>
@@ -2355,7 +4225,7 @@
         <v>0.58040000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>650</v>
       </c>
@@ -2375,34 +4245,34 @@
         <v>0.53559999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="26">
         <f>C30-(C30-C29)*((B30-A29)/(B30-B29))</f>
-        <v>1063</v>
+        <v>1055.8</v>
       </c>
       <c r="D31" s="26">
         <f>D30-(D30-D29)*((B30-A29)/(B30-B29))</f>
-        <v>3.2249999999999998E-5</v>
+        <v>3.1248000000000003E-5</v>
       </c>
       <c r="E31" s="26">
         <f>E30-(E30-E29)*((B30-A29)/(B30-B29))</f>
-        <v>4.9700000000000001E-2</v>
+        <v>4.802E-2</v>
       </c>
       <c r="F31" s="26">
         <f>F30-(F30-F29)*((B30-A29)/(B30-B29))</f>
-        <v>0.69</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="G31" s="27">
         <f>G30-(G30-G29)*((B30-A29)/(B30-B29))</f>
-        <v>0.53559999999999997</v>
+        <v>0.56247999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
@@ -2424,37 +4294,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="46">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
         <f>(C17*B10*(B17-A17))/(C31*(G15-G17))</f>
-        <v>165.15522107243649</v>
+        <v>74.23280924417503</v>
       </c>
       <c r="B34">
         <f>A34*C31</f>
-        <v>175560</v>
+        <v>78375</v>
       </c>
       <c r="C34">
         <f>G17</f>
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="D34">
         <f>F38*G31</f>
-        <v>137.62935089369708</v>
+        <v>61.860674370145865</v>
       </c>
       <c r="E34">
         <f>(D34*E17)/D31</f>
-        <v>85351.535437951679</v>
+        <v>39593.365572289978</v>
       </c>
       <c r="F34">
         <f>0.35*(E34^0.6)*(F31^0.36)</f>
-        <v>278.47134984205451</v>
+        <v>175.3662122030097</v>
       </c>
       <c r="G34">
         <f>(F34*E31)/E17</f>
-        <v>692.00130435750543</v>
+        <v>421.0542754994263</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C35" s="14" t="s">
         <v>42</v>
       </c>
@@ -2465,19 +4335,19 @@
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="7">
         <f>A34/(2.4*G31)</f>
-        <v>128.48147021442969</v>
+        <v>54.98922127910847</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="18"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
         <v>44</v>
       </c>
@@ -2492,7 +4362,7 @@
         <v>2.9666000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
         <v>46</v>
       </c>
@@ -2505,10 +4375,10 @@
       </c>
       <c r="F38" s="21">
         <f>(B15*D36)/(B15-E17)</f>
-        <v>256.96294042885938</v>
+        <v>109.97844255821694</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2528,42 +4398,42 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>B34</f>
-        <v>175560</v>
+        <v>78375</v>
       </c>
       <c r="B41">
         <f>F15</f>
-        <v>292600</v>
+        <v>209000</v>
       </c>
       <c r="C41">
         <f>A41/B41</f>
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="D41">
         <f>A41*(G15-A17)</f>
-        <v>71979600</v>
+        <v>32133750</v>
       </c>
       <c r="E41">
         <f>F17/D41</f>
-        <v>0.24390243902439024</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="F41">
         <f>-(1/C41)*LN(C41*LN(1-E41)+1)</f>
-        <v>0.30603917459717739</v>
+        <v>0.54718524691535819</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1">
-      <c r="K42" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="35"/>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="46"/>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1">
+    <row r="43" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2585,85 +4455,85 @@
       <c r="G43" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M43" s="29" t="s">
+      <c r="K43" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="N43" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O43" s="29" t="s">
-        <v>65</v>
+      <c r="M43" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>PI()*D17*B13*A23*D15</f>
-        <v>76.340701482231964</v>
+        <v>101.78760197630929</v>
       </c>
       <c r="B44">
         <f>PI()*E17*B13*D15*A23</f>
-        <v>101.7876019763093</v>
+        <v>135.71680263507909</v>
       </c>
       <c r="C44">
         <f>1/(G34*B44)</f>
-        <v>1.4197053013252548E-5</v>
+        <v>1.7499607131795054E-5</v>
       </c>
       <c r="D44">
         <f>LN(E17/D17)/(2*PI()*(D15*A23*B13)*E15)</f>
-        <v>4.7104962828828936E-7</v>
+        <v>3.53287221216217E-7</v>
       </c>
       <c r="E44">
         <f>1/(A44*F23)</f>
-        <v>3.9570771087796008E-6</v>
+        <v>5.2551014418454044E-6</v>
       </c>
       <c r="F44">
         <f>C44+D44+E44</f>
-        <v>1.8625179750320438E-5</v>
+        <v>2.3107995794856676E-5</v>
       </c>
       <c r="G44">
         <f>1/(F44*B44)</f>
-        <v>527.47835644562792</v>
-      </c>
-      <c r="K44" s="31">
+        <v>318.86298006175753</v>
+      </c>
+      <c r="K44" s="40">
         <v>50</v>
       </c>
-      <c r="L44" s="31">
-        <v>40.231000000000002</v>
-      </c>
-      <c r="M44" s="31">
-        <v>400</v>
-      </c>
-      <c r="N44" s="31">
-        <v>98.75</v>
-      </c>
-      <c r="O44" s="31">
-        <v>3.9550999999999998</v>
+      <c r="L44" s="47">
+        <v>59.656999999999996</v>
+      </c>
+      <c r="M44" s="47">
+        <v>500</v>
+      </c>
+      <c r="N44" s="47">
+        <v>46</v>
+      </c>
+      <c r="O44" s="47">
+        <v>1.8355999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1">
-      <c r="K45" s="31">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="40">
         <v>50</v>
       </c>
-      <c r="L45" s="31">
-        <v>67.986000000000004</v>
-      </c>
-      <c r="M45" s="31">
-        <v>525</v>
-      </c>
-      <c r="N45" s="31">
-        <v>39.15</v>
-      </c>
-      <c r="O45" s="31">
-        <v>1.5663</v>
+      <c r="L45" s="47">
+        <v>74.233000000000004</v>
+      </c>
+      <c r="M45" s="47">
+        <v>540</v>
+      </c>
+      <c r="N45" s="47">
+        <v>36</v>
+      </c>
+      <c r="O45" s="47">
+        <v>1.427</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -2671,137 +4541,137 @@
         <v>60</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="K46" s="31">
+      <c r="K46" s="40">
         <v>50</v>
       </c>
-      <c r="L46" s="31">
+      <c r="L46" s="47">
         <v>117.968</v>
       </c>
-      <c r="M46" s="31">
+      <c r="M46" s="47">
         <v>600</v>
       </c>
-      <c r="N46" s="31">
-        <v>23.35</v>
-      </c>
-      <c r="O46" s="31">
-        <v>0.93410000000000004</v>
+      <c r="N46" s="47">
+        <v>24</v>
+      </c>
+      <c r="O46" s="47">
+        <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <f>(F41*A41)/G44</f>
-        <v>101.85865796337887</v>
+        <v>134.49552443712685</v>
       </c>
       <c r="B47" s="12">
         <f>A47/(PI()*E17*B13*D15)</f>
-        <v>27.018848185963993</v>
+        <v>35.676045896509237</v>
       </c>
       <c r="C47" s="13">
         <f>B47*C15</f>
-        <v>1.0807539274385598</v>
-      </c>
-      <c r="K47" s="32">
+        <v>1.4270418358603696</v>
+      </c>
+      <c r="K47" s="41">
         <v>60</v>
       </c>
-      <c r="L47" s="32">
-        <v>48.277000000000001</v>
-      </c>
-      <c r="M47" s="32">
-        <v>400</v>
-      </c>
-      <c r="N47" s="32">
-        <v>103.55</v>
-      </c>
-      <c r="O47" s="32">
-        <v>4.1429</v>
+      <c r="L47" s="49">
+        <v>71.588999999999999</v>
+      </c>
+      <c r="M47" s="49">
+        <v>500</v>
+      </c>
+      <c r="N47" s="49">
+        <v>50</v>
+      </c>
+      <c r="O47" s="49">
+        <v>1.9826999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1">
-      <c r="K48" s="32">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="41">
         <v>60</v>
       </c>
-      <c r="L48" s="32">
-        <v>63.817</v>
-      </c>
-      <c r="M48" s="32">
-        <v>475</v>
-      </c>
-      <c r="N48" s="32">
-        <v>57.95</v>
-      </c>
-      <c r="O48" s="32">
-        <v>2.3178000000000001</v>
+      <c r="L48" s="49">
+        <v>94.91</v>
+      </c>
+      <c r="M48" s="49">
+        <v>550</v>
+      </c>
+      <c r="N48" s="49">
+        <v>36</v>
+      </c>
+      <c r="O48" s="49">
+        <v>1.4409000000000001</v>
       </c>
     </row>
-    <row r="49" spans="11:15" ht="15" thickBot="1">
-      <c r="K49" s="32">
+    <row r="49" spans="11:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="41">
         <v>60</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="49">
         <v>141.56200000000001</v>
       </c>
-      <c r="M49" s="32">
+      <c r="M49" s="49">
         <v>600</v>
       </c>
-      <c r="N49" s="32">
-        <v>25.25</v>
-      </c>
-      <c r="O49" s="32">
-        <v>1.0105999999999999</v>
+      <c r="N49" s="49">
+        <v>26</v>
+      </c>
+      <c r="O49" s="49">
+        <v>1.0163</v>
       </c>
     </row>
-    <row r="50" spans="11:15" ht="15" thickBot="1">
-      <c r="K50" s="30">
+    <row r="50" spans="11:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="42">
         <v>70</v>
       </c>
-      <c r="L50" s="30">
-        <v>56.323</v>
-      </c>
-      <c r="M50" s="30">
-        <v>400</v>
-      </c>
-      <c r="N50" s="30">
-        <v>108.65</v>
-      </c>
-      <c r="O50" s="30">
-        <v>4.3459000000000003</v>
+      <c r="L50" s="48">
+        <v>87.816000000000003</v>
+      </c>
+      <c r="M50" s="48">
+        <v>510</v>
+      </c>
+      <c r="N50" s="48">
+        <v>50</v>
+      </c>
+      <c r="O50" s="48">
+        <v>1.9855</v>
       </c>
     </row>
-    <row r="51" spans="11:15" ht="15" thickBot="1">
-      <c r="K51" s="30">
+    <row r="51" spans="11:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="42">
         <v>70</v>
       </c>
-      <c r="L51" s="30">
-        <v>83.52</v>
-      </c>
-      <c r="M51" s="30">
-        <v>500</v>
-      </c>
-      <c r="N51" s="30">
-        <v>52.7</v>
-      </c>
-      <c r="O51" s="30">
-        <v>2.1082999999999998</v>
+      <c r="L51" s="48">
+        <v>118.503</v>
+      </c>
+      <c r="M51" s="48">
+        <v>560</v>
+      </c>
+      <c r="N51" s="48">
+        <v>36</v>
+      </c>
+      <c r="O51" s="48">
+        <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="52" spans="11:15" ht="15" thickBot="1">
-      <c r="K52" s="30">
+    <row r="52" spans="11:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K52" s="42">
         <v>70</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="48">
         <v>165.155</v>
       </c>
-      <c r="M52" s="30">
+      <c r="M52" s="48">
         <v>600</v>
       </c>
-      <c r="N52" s="30">
+      <c r="N52" s="48">
         <v>27</v>
       </c>
-      <c r="O52" s="30">
-        <v>1.0807</v>
+      <c r="O52" s="48">
+        <v>1.0808</v>
       </c>
     </row>
   </sheetData>
@@ -2816,8 +4686,8 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2827,12 +4697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2844,12 +4714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/meeg342_Project2.xlsx
+++ b/meeg342_Project2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F17C9-A427-4AA9-AFCB-E8D7BB544A6D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7821D021-DA2F-4B50-B08F-10633B826928}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Air Properties</t>
   </si>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>Length of HE</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ho</t>
+    </r>
   </si>
   <si>
     <r>
@@ -339,12 +355,15 @@
   <si>
     <t>Results Table</t>
   </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +460,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +537,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -794,6 +826,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -806,7 +853,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -875,6 +922,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
@@ -2265,7 +2317,7 @@
           <c:x val="0.867719298245614"/>
           <c:y val="0.42383360045495294"/>
           <c:w val="0.12005822416302765"/>
-          <c:h val="0.18666230643809242"/>
+          <c:h val="0.18242533156916568"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3823,8 +3875,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,6 +3884,7 @@
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4053,7 +4106,7 @@
       </c>
       <c r="F15" s="23">
         <f>C17*B10</f>
-        <v>209000</v>
+        <v>292600</v>
       </c>
       <c r="G15" s="23">
         <v>700</v>
@@ -4083,7 +4136,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>290</v>
       </c>
@@ -4091,7 +4144,7 @@
         <v>350</v>
       </c>
       <c r="C17" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D17" s="23">
         <v>1.4999999999999999E-2</v>
@@ -4101,25 +4154,25 @@
       </c>
       <c r="F17" s="23">
         <f>F15*(B17-A17)</f>
-        <v>12540000</v>
+        <v>17556000</v>
       </c>
       <c r="G17" s="32">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4135,29 +4188,41 @@
       <c r="F22" s="22" t="s">
         <v>40</v>
       </c>
+      <c r="L22" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C23" s="23">
         <f>(4*C17/(PI()*D17*C10*A23*D15))</f>
-        <v>6810.6614926886768</v>
+        <v>7462.116070250202</v>
       </c>
       <c r="D23" s="24">
         <f>((0.79*LN(C23))-1.64)^(-2)</f>
-        <v>3.5164163531470678E-2</v>
+        <v>3.4231407259020435E-2</v>
       </c>
       <c r="E23" s="24">
         <f>((D23/8)*(C23-1000)*E10)/(((D23/8)^(1/2))*12.7*((E10^(2/3))-1)+1)</f>
-        <v>43.816259328805906</v>
+        <v>47.783780234522638</v>
       </c>
       <c r="F23" s="24">
         <f>(E23*D10)/D17</f>
-        <v>1869.4937313623855</v>
+        <v>2038.7746233396326</v>
+      </c>
+      <c r="L23" s="51">
+        <v>500</v>
+      </c>
+      <c r="M23" s="52">
+        <v>0.48780000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
@@ -4169,16 +4234,42 @@
         <f>(E24*D10)/D17</f>
         <v>170.66666666666669</v>
       </c>
+      <c r="L24" s="51">
+        <v>540</v>
+      </c>
+      <c r="M24" s="52">
+        <v>0.39019999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L25" s="51">
+        <v>550</v>
+      </c>
+      <c r="M25" s="52">
+        <v>0.3659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L26" s="51">
+        <v>560</v>
+      </c>
+      <c r="M26" s="52">
+        <v>0.34150000000000003</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I27" s="7"/>
+      <c r="L27" s="51">
+        <v>600</v>
+      </c>
+      <c r="M27" s="52">
+        <v>0.24390000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -4201,10 +4292,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>(G17+G15)/2</f>
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="B29">
         <v>600</v>
@@ -4225,7 +4316,7 @@
         <v>0.58040000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>650</v>
       </c>
@@ -4245,30 +4336,30 @@
         <v>0.53559999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="26">
         <f>C30-(C30-C29)*((B30-A29)/(B30-B29))</f>
-        <v>1055.8</v>
+        <v>1063</v>
       </c>
       <c r="D31" s="26">
         <f>D30-(D30-D29)*((B30-A29)/(B30-B29))</f>
-        <v>3.1248000000000003E-5</v>
+        <v>3.2249999999999998E-5</v>
       </c>
       <c r="E31" s="26">
         <f>E30-(E30-E29)*((B30-A29)/(B30-B29))</f>
-        <v>4.802E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="F31" s="26">
         <f>F30-(F30-F29)*((B30-A29)/(B30-B29))</f>
-        <v>0.68700000000000006</v>
+        <v>0.69</v>
       </c>
       <c r="G31" s="27">
         <f>G30-(G30-G29)*((B30-A29)/(B30-B29))</f>
-        <v>0.56247999999999998</v>
+        <v>0.53559999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -4297,31 +4388,31 @@
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <f>(C17*B10*(B17-A17))/(C31*(G15-G17))</f>
-        <v>74.23280924417503</v>
+        <v>165.15522107243649</v>
       </c>
       <c r="B34">
         <f>A34*C31</f>
-        <v>78375</v>
+        <v>175560</v>
       </c>
       <c r="C34">
         <f>G17</f>
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="D34">
         <f>F38*G31</f>
-        <v>61.860674370145865</v>
+        <v>137.62935089369708</v>
       </c>
       <c r="E34">
         <f>(D34*E17)/D31</f>
-        <v>39593.365572289978</v>
+        <v>85351.535437951679</v>
       </c>
       <c r="F34">
         <f>0.35*(E34^0.6)*(F31^0.36)</f>
-        <v>175.3662122030097</v>
+        <v>278.47134984205451</v>
       </c>
       <c r="G34">
         <f>(F34*E31)/E17</f>
-        <v>421.0542754994263</v>
+        <v>692.00130435750543</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -4341,7 +4432,7 @@
       </c>
       <c r="D36" s="7">
         <f>A34/(2.4*G31)</f>
-        <v>54.98922127910847</v>
+        <v>128.48147021442969</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="18"/>
@@ -4375,7 +4466,7 @@
       </c>
       <c r="F38" s="21">
         <f>(B15*D36)/(B15-E17)</f>
-        <v>109.97844255821694</v>
+        <v>256.96294042885938</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -4391,7 +4482,7 @@
       <c r="D40" t="s">
         <v>51</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="50" t="s">
         <v>61</v>
       </c>
       <c r="F40" t="s">
@@ -4401,32 +4492,32 @@
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>B34</f>
-        <v>78375</v>
+        <v>175560</v>
       </c>
       <c r="B41">
         <f>F15</f>
-        <v>209000</v>
+        <v>292600</v>
       </c>
       <c r="C41">
         <f>A41/B41</f>
-        <v>0.375</v>
+        <v>0.6</v>
       </c>
       <c r="D41">
         <f>A41*(G15-A17)</f>
-        <v>32133750</v>
-      </c>
-      <c r="E41">
+        <v>71979600</v>
+      </c>
+      <c r="E41" s="50">
         <f>F17/D41</f>
-        <v>0.3902439024390244</v>
+        <v>0.24390243902439024</v>
       </c>
       <c r="F41">
         <f>-(1/C41)*LN(C41*LN(1-E41)+1)</f>
-        <v>0.54718524691535819</v>
+        <v>0.30603917459717739</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K42" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
@@ -4456,49 +4547,49 @@
         <v>58</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L43" s="43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M43" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N43" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>PI()*D17*B13*A23*D15</f>
-        <v>101.78760197630929</v>
+        <v>130.06193585861743</v>
       </c>
       <c r="B44">
         <f>PI()*E17*B13*D15*A23</f>
-        <v>135.71680263507909</v>
+        <v>173.41591447815659</v>
       </c>
       <c r="C44">
         <f>1/(G34*B44)</f>
-        <v>1.7499607131795054E-5</v>
+        <v>8.3330528556047566E-6</v>
       </c>
       <c r="D44">
         <f>LN(E17/D17)/(2*PI()*(D15*A23*B13)*E15)</f>
-        <v>3.53287221216217E-7</v>
+        <v>2.7648565138660453E-7</v>
       </c>
       <c r="E44">
         <f>1/(A44*F23)</f>
-        <v>5.2551014418454044E-6</v>
+        <v>3.7712086984960204E-6</v>
       </c>
       <c r="F44">
         <f>C44+D44+E44</f>
-        <v>2.3107995794856676E-5</v>
+        <v>1.2380747205487381E-5</v>
       </c>
       <c r="G44">
         <f>1/(F44*B44)</f>
-        <v>318.86298006175753</v>
+        <v>465.76215067235302</v>
       </c>
       <c r="K44" s="40">
         <v>50</v>
@@ -4563,15 +4654,15 @@
     <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <f>(F41*A41)/G44</f>
-        <v>134.49552443712685</v>
+        <v>115.35552516390786</v>
       </c>
       <c r="B47" s="12">
         <f>A47/(PI()*E17*B13*D15)</f>
-        <v>35.676045896509237</v>
+        <v>30.599003404662422</v>
       </c>
       <c r="C47" s="13">
         <f>B47*C15</f>
-        <v>1.4270418358603696</v>
+        <v>1.2239601361864969</v>
       </c>
       <c r="K47" s="41">
         <v>60</v>
